--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd200r4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.8800794591802</v>
+        <v>63.24146666666667</v>
       </c>
       <c r="H2">
-        <v>60.8800794591802</v>
+        <v>189.7244</v>
       </c>
       <c r="I2">
-        <v>0.6946742538587175</v>
+        <v>0.691260822592742</v>
       </c>
       <c r="J2">
-        <v>0.6946742538587175</v>
+        <v>0.7565855924568045</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4990518198493</v>
+        <v>11.746352</v>
       </c>
       <c r="N2">
-        <v>11.4990518198493</v>
+        <v>35.239056</v>
       </c>
       <c r="O2">
-        <v>0.5802811706730643</v>
+        <v>0.5819925428308604</v>
       </c>
       <c r="P2">
-        <v>0.5802811706730643</v>
+        <v>0.5819925428308604</v>
       </c>
       <c r="Q2">
-        <v>700.063188497656</v>
+        <v>742.8565284629333</v>
       </c>
       <c r="R2">
-        <v>700.063188497656</v>
+        <v>6685.708756166399</v>
       </c>
       <c r="S2">
-        <v>0.403106389265574</v>
+        <v>0.4023086439001022</v>
       </c>
       <c r="T2">
-        <v>0.403106389265574</v>
+        <v>0.4403271728231287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.8800794591802</v>
+        <v>63.24146666666667</v>
       </c>
       <c r="H3">
-        <v>60.8800794591802</v>
+        <v>189.7244</v>
       </c>
       <c r="I3">
-        <v>0.6946742538587175</v>
+        <v>0.691260822592742</v>
       </c>
       <c r="J3">
-        <v>0.6946742538587175</v>
+        <v>0.7565855924568045</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.31729308500368</v>
+        <v>8.436642000000001</v>
       </c>
       <c r="N3">
-        <v>8.31729308500368</v>
+        <v>25.309926</v>
       </c>
       <c r="O3">
-        <v>0.4197188293269357</v>
+        <v>0.4180074571691396</v>
       </c>
       <c r="P3">
-        <v>0.4197188293269357</v>
+        <v>0.4180074571691396</v>
       </c>
       <c r="Q3">
-        <v>506.3574639003141</v>
+        <v>533.5456138216001</v>
       </c>
       <c r="R3">
-        <v>506.3574639003141</v>
+        <v>4801.9105243944</v>
       </c>
       <c r="S3">
-        <v>0.2915678645931435</v>
+        <v>0.2889521786926398</v>
       </c>
       <c r="T3">
-        <v>0.2915678645931435</v>
+        <v>0.3162584196336758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.84370649929225</v>
+        <v>2.977970666666666</v>
       </c>
       <c r="H4">
-        <v>1.84370649929225</v>
+        <v>8.933911999999999</v>
       </c>
       <c r="I4">
-        <v>0.02103767682479892</v>
+        <v>0.0325507070154981</v>
       </c>
       <c r="J4">
-        <v>0.02103767682479892</v>
+        <v>0.03562677812383096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.4990518198493</v>
+        <v>11.746352</v>
       </c>
       <c r="N4">
-        <v>11.4990518198493</v>
+        <v>35.239056</v>
       </c>
       <c r="O4">
-        <v>0.5802811706730643</v>
+        <v>0.5819925428308604</v>
       </c>
       <c r="P4">
-        <v>0.5802811706730643</v>
+        <v>0.5819925428308604</v>
       </c>
       <c r="Q4">
-        <v>21.20087657595453</v>
+        <v>34.98029169634133</v>
       </c>
       <c r="R4">
-        <v>21.20087657595453</v>
+        <v>314.8226252670719</v>
       </c>
       <c r="S4">
-        <v>0.01220776773613591</v>
+        <v>0.01894426874689207</v>
       </c>
       <c r="T4">
-        <v>0.01220776773613591</v>
+        <v>0.02073451919315925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.84370649929225</v>
+        <v>2.977970666666666</v>
       </c>
       <c r="H5">
-        <v>1.84370649929225</v>
+        <v>8.933911999999999</v>
       </c>
       <c r="I5">
-        <v>0.02103767682479892</v>
+        <v>0.0325507070154981</v>
       </c>
       <c r="J5">
-        <v>0.02103767682479892</v>
+        <v>0.03562677812383096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.31729308500368</v>
+        <v>8.436642000000001</v>
       </c>
       <c r="N5">
-        <v>8.31729308500368</v>
+        <v>25.309926</v>
       </c>
       <c r="O5">
-        <v>0.4197188293269357</v>
+        <v>0.4180074571691396</v>
       </c>
       <c r="P5">
-        <v>0.4197188293269357</v>
+        <v>0.4180074571691396</v>
       </c>
       <c r="Q5">
-        <v>15.33464731733977</v>
+        <v>25.124072401168</v>
       </c>
       <c r="R5">
-        <v>15.33464731733977</v>
+        <v>226.116651610512</v>
       </c>
       <c r="S5">
-        <v>0.008829909088663008</v>
+        <v>0.01360643826860603</v>
       </c>
       <c r="T5">
-        <v>0.008829909088663008</v>
+        <v>0.01489225893067171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.21779351274477</v>
+        <v>1.297988333333333</v>
       </c>
       <c r="H6">
-        <v>1.21779351274477</v>
+        <v>3.893965</v>
       </c>
       <c r="I6">
-        <v>0.01389567502761192</v>
+        <v>0.01418766088625051</v>
       </c>
       <c r="J6">
-        <v>0.01389567502761192</v>
+        <v>0.01552840760877916</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.4990518198493</v>
+        <v>11.746352</v>
       </c>
       <c r="N6">
-        <v>11.4990518198493</v>
+        <v>35.239056</v>
       </c>
       <c r="O6">
-        <v>0.5802811706730643</v>
+        <v>0.5819925428308604</v>
       </c>
       <c r="P6">
-        <v>0.5802811706730643</v>
+        <v>0.5819925428308604</v>
       </c>
       <c r="Q6">
-        <v>14.00347070892842</v>
+        <v>15.24662785522667</v>
       </c>
       <c r="R6">
-        <v>14.00347070892842</v>
+        <v>137.21965069704</v>
       </c>
       <c r="S6">
-        <v>0.00806339857231511</v>
+        <v>0.008257112836010874</v>
       </c>
       <c r="T6">
-        <v>0.00806339857231511</v>
+        <v>0.009037417430347463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.21779351274477</v>
+        <v>1.297988333333333</v>
       </c>
       <c r="H7">
-        <v>1.21779351274477</v>
+        <v>3.893965</v>
       </c>
       <c r="I7">
-        <v>0.01389567502761192</v>
+        <v>0.01418766088625051</v>
       </c>
       <c r="J7">
-        <v>0.01389567502761192</v>
+        <v>0.01552840760877916</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.31729308500368</v>
+        <v>8.436642000000001</v>
       </c>
       <c r="N7">
-        <v>8.31729308500368</v>
+        <v>25.309926</v>
       </c>
       <c r="O7">
-        <v>0.4197188293269357</v>
+        <v>0.4180074571691396</v>
       </c>
       <c r="P7">
-        <v>0.4197188293269357</v>
+        <v>0.4180074571691396</v>
       </c>
       <c r="Q7">
-        <v>10.12874556251442</v>
+        <v>10.95066288851</v>
       </c>
       <c r="R7">
-        <v>10.12874556251442</v>
+        <v>98.55596599658999</v>
       </c>
       <c r="S7">
-        <v>0.005832276455296811</v>
+        <v>0.005930548050239637</v>
       </c>
       <c r="T7">
-        <v>0.005832276455296811</v>
+        <v>0.006490990178431694</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>23.6967331926086</v>
+        <v>0.2722813333333333</v>
       </c>
       <c r="H8">
-        <v>23.6967331926086</v>
+        <v>0.816844</v>
       </c>
       <c r="I8">
-        <v>0.2703923942888716</v>
+        <v>0.002976170989972538</v>
       </c>
       <c r="J8">
-        <v>0.2703923942888716</v>
+        <v>0.003257421827054327</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.4990518198493</v>
+        <v>11.746352</v>
       </c>
       <c r="N8">
-        <v>11.4990518198493</v>
+        <v>35.239056</v>
       </c>
       <c r="O8">
-        <v>0.5802811706730643</v>
+        <v>0.5819925428308604</v>
       </c>
       <c r="P8">
-        <v>0.5802811706730643</v>
+        <v>0.5819925428308604</v>
       </c>
       <c r="Q8">
-        <v>272.4899629429492</v>
+        <v>3.198312384362667</v>
       </c>
       <c r="R8">
-        <v>272.4899629429492</v>
+        <v>28.784811459264</v>
       </c>
       <c r="S8">
-        <v>0.1569036150990392</v>
+        <v>0.001732109322353557</v>
       </c>
       <c r="T8">
-        <v>0.1569036150990392</v>
+        <v>0.001895795212200095</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,185 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2722813333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.816844</v>
+      </c>
+      <c r="I9">
+        <v>0.002976170989972538</v>
+      </c>
+      <c r="J9">
+        <v>0.003257421827054327</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.436642000000001</v>
+      </c>
+      <c r="N9">
+        <v>25.309926</v>
+      </c>
+      <c r="O9">
+        <v>0.4180074571691396</v>
+      </c>
+      <c r="P9">
+        <v>0.4180074571691396</v>
+      </c>
+      <c r="Q9">
+        <v>2.297140132616</v>
+      </c>
+      <c r="R9">
+        <v>20.674261193544</v>
+      </c>
+      <c r="S9">
+        <v>0.001244061667618981</v>
+      </c>
+      <c r="T9">
+        <v>0.001361626614854232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>23.6967331926086</v>
-      </c>
-      <c r="H9">
-        <v>23.6967331926086</v>
-      </c>
-      <c r="I9">
-        <v>0.2703923942888716</v>
-      </c>
-      <c r="J9">
-        <v>0.2703923942888716</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.31729308500368</v>
-      </c>
-      <c r="N9">
-        <v>8.31729308500368</v>
-      </c>
-      <c r="O9">
-        <v>0.4197188293269357</v>
-      </c>
-      <c r="P9">
-        <v>0.4197188293269357</v>
-      </c>
-      <c r="Q9">
-        <v>197.0926751200607</v>
-      </c>
-      <c r="R9">
-        <v>197.0926751200607</v>
-      </c>
-      <c r="S9">
-        <v>0.1134887791898324</v>
-      </c>
-      <c r="T9">
-        <v>0.1134887791898324</v>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>23.69742</v>
+      </c>
+      <c r="H10">
+        <v>47.39484</v>
+      </c>
+      <c r="I10">
+        <v>0.2590246385155367</v>
+      </c>
+      <c r="J10">
+        <v>0.1890017999835311</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>11.746352</v>
+      </c>
+      <c r="N10">
+        <v>35.239056</v>
+      </c>
+      <c r="O10">
+        <v>0.5819925428308604</v>
+      </c>
+      <c r="P10">
+        <v>0.5819925428308604</v>
+      </c>
+      <c r="Q10">
+        <v>278.35823681184</v>
+      </c>
+      <c r="R10">
+        <v>1670.14942087104</v>
+      </c>
+      <c r="S10">
+        <v>0.1507504080255016</v>
+      </c>
+      <c r="T10">
+        <v>0.109997638172025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>23.69742</v>
+      </c>
+      <c r="H11">
+        <v>47.39484</v>
+      </c>
+      <c r="I11">
+        <v>0.2590246385155367</v>
+      </c>
+      <c r="J11">
+        <v>0.1890017999835311</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.436642000000001</v>
+      </c>
+      <c r="N11">
+        <v>25.309926</v>
+      </c>
+      <c r="O11">
+        <v>0.4180074571691396</v>
+      </c>
+      <c r="P11">
+        <v>0.4180074571691396</v>
+      </c>
+      <c r="Q11">
+        <v>199.92664886364</v>
+      </c>
+      <c r="R11">
+        <v>1199.55989318184</v>
+      </c>
+      <c r="S11">
+        <v>0.1082742304900351</v>
+      </c>
+      <c r="T11">
+        <v>0.07900416181150617</v>
       </c>
     </row>
   </sheetData>
